--- a/report_excel.xlsx
+++ b/report_excel.xlsx
@@ -458,12 +458,92 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -472,7 +552,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -489,6 +569,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -509,398 +616,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Start</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$D$7:$D$10</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>b</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>c</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>d</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$7:$E$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>110.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>124</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9A9C-4AC7-8301-6D12A38D063F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>End</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$D$7:$D$10</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>b</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>c</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>d</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$7:$F$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>167.23423</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>180.24213</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9A9C-4AC7-8301-6D12A38D063F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="1367501808"/>
-        <c:axId val="1367497648"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1367501808"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1367497648"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1367497648"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="95"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1367501808"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1050,31 +765,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90637016296386719</c:v>
+                  <c:v>0.92467021942138672</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8373100757598877</c:v>
+                  <c:v>1.922680139541626</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7478301525115967</c:v>
+                  <c:v>2.8943800926208496</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6660201549530029</c:v>
+                  <c:v>3.9204699993133545</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.92930600643157957</c:v>
+                  <c:v>0.88329198360443117</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8586120128631591</c:v>
+                  <c:v>1.7665839672088623</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7879180192947386</c:v>
+                  <c:v>2.6498759508132936</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.7172240257263183</c:v>
+                  <c:v>3.5331679344177247</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1238,34 +953,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.90620017051696777</c:v>
+                  <c:v>0.88725018501281738</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93079996109008789</c:v>
+                  <c:v>0.96348977088928223</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91038990020751953</c:v>
+                  <c:v>0.93468999862670898</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9180598258972168</c:v>
+                  <c:v>0.990570068359375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89965987205505371</c:v>
+                  <c:v>0.90183019638061523</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92930600643157957</c:v>
+                  <c:v>0.88329198360443117</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.92930600643157957</c:v>
+                  <c:v>0.88329198360443117</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92930600643157957</c:v>
+                  <c:v>0.88329198360443117</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92930600643157957</c:v>
+                  <c:v>0.88329198360443117</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92930600643157957</c:v>
+                  <c:v>0.88329198360443117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1455,7 +1170,7 @@
         <c:crossAx val="1528286608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.92930600600000002"/>
+        <c:majorUnit val="0.88329198400000009"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1497,7 +1212,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1652,16 +1367,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8586120128631591</c:v>
+                  <c:v>1.7665839672088623</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.4344480514526365</c:v>
+                  <c:v>7.0663358688354494</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.2930600643157959</c:v>
+                  <c:v>8.8329198360443115</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.010284090042113</c:v>
+                  <c:v>12.366087770462038</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1840,19 +1555,19 @@
                   <c:v>1.7980899810791016</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.4344480514526365</c:v>
+                  <c:v>7.0663358688354494</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8586120128631591</c:v>
+                  <c:v>1.7665839672088623</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.010284090042113</c:v>
+                  <c:v>12.366087770462038</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.7172240257263183</c:v>
+                  <c:v>3.5331679344177247</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.8586120128631591</c:v>
+                  <c:v>1.7665839672088623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1932,7 +1647,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2012,37 +1727,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="1539754816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="1.8586120130000001"/>
+        <c:majorUnit val="1.7665839670000003"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2089,7 +1777,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2258,19 +1946,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7879180192947386</c:v>
+                  <c:v>2.6498759508132896</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.5758360385894772</c:v>
+                  <c:v>5.2997519016265793</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.2930600643157959</c:v>
+                  <c:v>8.8329198360442991</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.222366070747375</c:v>
+                  <c:v>9.7162118196487288</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.010284090042113</c:v>
+                  <c:v>12.366087770462018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2477,22 +2165,22 @@
                   <c:v>36.189729928970337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.45501623153686</c:v>
+                  <c:v>31.798511409759477</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.384322237968441</c:v>
+                  <c:v>32.681803393363907</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.020568180084226</c:v>
+                  <c:v>24.732175540924036</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46.465300321578979</c:v>
+                  <c:v>44.164599180221494</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41.818770289421082</c:v>
+                  <c:v>39.748139262199345</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38.101546263694757</c:v>
+                  <c:v>36.214971327781626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2524,7 +2212,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2649,13 +2337,13 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1531378672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.92930600600000002"/>
+        <c:majorUnit val="0.88329198400000009"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2702,7 +2390,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2858,31 +2546,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4438199996948242</c:v>
+                  <c:v>5.6301100254058838</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.2707998752593994</c:v>
+                  <c:v>7.509429931640625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.451539993286133</c:v>
+                  <c:v>16.470829963684082</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.580039978027344</c:v>
+                  <c:v>14.685299873352051</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5758360385894772</c:v>
+                  <c:v>5.2997519016265793</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.4344480514526365</c:v>
+                  <c:v>7.0663358688354396</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.72750811576843</c:v>
+                  <c:v>15.899255704879739</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.868896102905273</c:v>
+                  <c:v>14.132671737670879</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3057,34 +2745,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.4435899257659912</c:v>
+                  <c:v>5.6282498836517334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.826819896697998</c:v>
+                  <c:v>1.877119779586792</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.3088200092315674</c:v>
+                  <c:v>7.173879861831665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5936298370361328</c:v>
+                  <c:v>3.5649199485778809</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8712999820709229</c:v>
+                  <c:v>1.783519983291626</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5758360385894772</c:v>
+                  <c:v>5.2997519016265793</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8586120128631591</c:v>
+                  <c:v>1.7665839672088599</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.4344480514526365</c:v>
+                  <c:v>7.0663358688354396</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7172240257263183</c:v>
+                  <c:v>3.5331679344177198</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8586120128631591</c:v>
+                  <c:v>1.7665839672088599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3241,13 +2929,13 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1528284112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="1.8586120130000001"/>
+        <c:majorUnit val="1.7665839670000003"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3454,46 +3142,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -5514,529 +5162,24 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>49237</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>14068</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>372794</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>56271</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>119575</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>98475</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>77370</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>140677</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6051,36 +5194,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>161778</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>344656</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>56270</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6088,16 +5201,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>21103</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>133644</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>393896</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>70339</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>513472</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>98474</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133643</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>126609</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6123,16 +5236,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>295422</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>105506</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>351691</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>56268</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>492370</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>189913</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>302454</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>140674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6158,16 +5271,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>576775</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>77371</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>506437</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28134</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>295421</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>161777</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>225083</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>112540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6452,10 +5565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:M53"/>
+  <dimension ref="B1:M53"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.95"/>
@@ -6464,7 +5577,47 @@
     <col min="11" max="11" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:6">
+    <row r="1" spans="2:12">
+      <c r="K1" s="1">
+        <v>1588061303.7335999</v>
+      </c>
+      <c r="L1" s="1">
+        <v>1588061304.5989001</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12">
+      <c r="K2" s="1">
+        <v>1588061305.5272901</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1588061306.41222</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="K3" s="1">
+        <v>1588061307.34215</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1588061308.2493899</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="K4" s="1">
+        <v>1588061309.1647999</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1588061310.06587</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="K5" s="1">
+        <v>1588061311.0030501</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1588061311.87695</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
       <c r="D6" t="s">
         <v>0</v>
       </c>
@@ -6474,8 +5627,14 @@
       <c r="F6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="2:6">
+      <c r="K6" s="1">
+        <v>1588061312.8224001</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1588061313.70191</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
       <c r="D7" t="s">
         <v>1</v>
       </c>
@@ -6485,8 +5644,14 @@
       <c r="F7">
         <v>150</v>
       </c>
-    </row>
-    <row r="8" spans="2:6">
+      <c r="K7" s="1">
+        <v>1588061314.6247499</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1588061315.4914</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
       <c r="D8" t="s">
         <v>2</v>
       </c>
@@ -6496,8 +5661,14 @@
       <c r="F8">
         <v>160</v>
       </c>
-    </row>
-    <row r="9" spans="2:6">
+      <c r="K8" s="1">
+        <v>1588061316.3815601</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1588061317.2945499</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
       <c r="D9" t="s">
         <v>3</v>
       </c>
@@ -6507,8 +5678,14 @@
       <c r="F9">
         <v>167.23423</v>
       </c>
-    </row>
-    <row r="10" spans="2:6">
+      <c r="K9" s="1">
+        <v>1588061318.17906</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1588061319.0441799</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
       <c r="D10" t="s">
         <v>4</v>
       </c>
@@ -6518,8 +5695,14 @@
       <c r="F10">
         <v>180.24213</v>
       </c>
-    </row>
-    <row r="14" spans="2:6">
+      <c r="K10" s="1">
+        <v>1588061319.96597</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1588061320.84218</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -6527,7 +5710,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:12">
       <c r="B15" t="s">
         <v>8</v>
       </c>
@@ -6535,7 +5718,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:12">
       <c r="B16" t="s">
         <v>9</v>
       </c>
@@ -6614,105 +5797,120 @@
       </c>
     </row>
     <row r="27" spans="2:13">
+      <c r="B27" s="1">
+        <v>1588062167.2948699</v>
+      </c>
       <c r="D27" s="1">
-        <v>1587911858.70116</v>
+        <v>1588061303.7335999</v>
       </c>
       <c r="E27" s="1">
-        <v>1587911859.5973301</v>
+        <v>1588061304.5989001</v>
       </c>
       <c r="F27">
         <f>E27-D27</f>
-        <v>0.89617013931274414</v>
+        <v>0.86530017852783203</v>
       </c>
       <c r="I27" s="1">
-        <v>1587911189.7543499</v>
+        <v>1588062167.2948699</v>
       </c>
       <c r="J27" s="1">
-        <v>1587911190.6605501</v>
+        <v>1588062168.1821201</v>
       </c>
     </row>
     <row r="28" spans="2:13">
+      <c r="B28" s="1">
+        <v>1588062168.2195401</v>
+      </c>
       <c r="D28" s="1">
-        <v>1587911860.5152299</v>
+        <v>1588061305.5272901</v>
       </c>
       <c r="E28" s="1">
-        <v>1587911861.4380901</v>
+        <v>1588061306.41222</v>
       </c>
       <c r="F28">
         <f t="shared" ref="F28:F36" si="0">E28-D28</f>
-        <v>0.92286014556884766</v>
+        <v>0.88492989540100098</v>
       </c>
       <c r="I28" s="1">
-        <v>1587911190.6607201</v>
+        <v>1588062168.2195401</v>
       </c>
       <c r="J28" s="1">
-        <v>1587911191.5915201</v>
+        <v>1588062169.1830299</v>
       </c>
     </row>
     <row r="29" spans="2:13">
+      <c r="B29" s="1">
+        <v>1588062169.21755</v>
+      </c>
       <c r="D29" s="1">
-        <v>1587911862.3614099</v>
+        <v>1588061307.34215</v>
       </c>
       <c r="E29" s="1">
-        <v>1587911863.2731299</v>
+        <v>1588061308.2493899</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>0.91172003746032715</v>
+        <v>0.90723991394042969</v>
       </c>
       <c r="I29" s="1">
-        <v>1587911191.59166</v>
+        <v>1588062169.21755</v>
       </c>
       <c r="J29" s="1">
-        <v>1587911192.5020499</v>
+        <v>1588062170.15224</v>
       </c>
     </row>
     <row r="30" spans="2:13">
+      <c r="B30" s="1">
+        <v>1588062170.18925</v>
+      </c>
       <c r="D30" s="1">
-        <v>1587911864.1586201</v>
+        <v>1588061309.1647999</v>
       </c>
       <c r="E30" s="1">
-        <v>1587911865.0948999</v>
+        <v>1588061310.06587</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
-        <v>0.9362797737121582</v>
+        <v>0.90107011795043945</v>
       </c>
       <c r="I30" s="1">
-        <v>1587911192.5021801</v>
+        <v>1588062170.18925</v>
       </c>
       <c r="J30" s="1">
-        <v>1587911193.4202399</v>
+        <v>1588062171.1798201</v>
       </c>
     </row>
     <row r="31" spans="2:13">
+      <c r="B31" s="1">
+        <v>1588062171.2153399</v>
+      </c>
       <c r="D31" s="1">
-        <v>1587911866.02951</v>
+        <v>1588061311.0030501</v>
       </c>
       <c r="E31" s="1">
-        <v>1587911866.9482501</v>
+        <v>1588061311.87695</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
-        <v>0.91874003410339355</v>
+        <v>0.87389993667602539</v>
       </c>
       <c r="I31" s="1">
-        <v>1587911193.4203701</v>
+        <v>1588062171.2153399</v>
       </c>
       <c r="J31" s="2">
-        <v>1587911194.32003</v>
+        <v>1588062172.1171701</v>
       </c>
     </row>
     <row r="32" spans="2:13">
       <c r="D32" s="1">
-        <v>1587911867.8701501</v>
+        <v>1588061312.8224001</v>
       </c>
       <c r="E32" s="1">
-        <v>1587911868.80283</v>
+        <v>1588061313.70191</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
-        <v>0.93267989158630371</v>
+        <v>0.87950992584228516</v>
       </c>
       <c r="K32" t="s">
         <v>42</v>
@@ -6723,42 +5921,45 @@
       </c>
       <c r="M32">
         <f>J27-I27</f>
-        <v>0.90620017051696777</v>
-      </c>
-    </row>
-    <row r="33" spans="3:13">
+        <v>0.88725018501281738</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13">
       <c r="D33" s="1">
-        <v>1587911869.7017</v>
+        <v>1588061314.6247499</v>
       </c>
       <c r="E33" s="1">
-        <v>1587911870.6387401</v>
+        <v>1588061315.4914</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
-        <v>0.93704009056091309</v>
+        <v>0.86665010452270508</v>
       </c>
       <c r="K33" t="s">
         <v>44</v>
       </c>
       <c r="L33">
         <f>I28-I27</f>
-        <v>0.90637016296386719</v>
+        <v>0.92467021942138672</v>
       </c>
       <c r="M33">
         <f>J28-I28</f>
-        <v>0.93079996109008789</v>
-      </c>
-    </row>
-    <row r="34" spans="3:13">
+        <v>0.96348977088928223</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="1">
+        <v>1588062168.1821201</v>
+      </c>
       <c r="D34" s="1">
-        <v>1587911871.56776</v>
+        <v>1588061316.3815601</v>
       </c>
       <c r="E34" s="1">
-        <v>1587911872.5499201</v>
+        <v>1588061317.2945499</v>
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
-        <v>0.98216009140014648</v>
+        <v>0.91298985481262207</v>
       </c>
       <c r="I34" t="s">
         <v>31</v>
@@ -6771,60 +5972,69 @@
       </c>
       <c r="L34">
         <f>I29-I27</f>
-        <v>1.8373100757598877</v>
+        <v>1.922680139541626</v>
       </c>
       <c r="M34">
         <f>J29-I29</f>
-        <v>0.91038990020751953</v>
-      </c>
-    </row>
-    <row r="35" spans="3:13">
+        <v>0.93468999862670898</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="1">
+        <v>1588062169.1830299</v>
+      </c>
       <c r="D35" s="1">
-        <v>1587911873.4577301</v>
+        <v>1588061318.17906</v>
       </c>
       <c r="E35" s="1">
-        <v>1587911874.3633699</v>
+        <v>1588061319.0441799</v>
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
-        <v>0.9056398868560791</v>
+        <v>0.86511993408203125</v>
       </c>
       <c r="K35" t="s">
         <v>48</v>
       </c>
       <c r="L35">
         <f>I30-I27</f>
-        <v>2.7478301525115967</v>
+        <v>2.8943800926208496</v>
       </c>
       <c r="M35">
         <f>J30-I30</f>
-        <v>0.9180598258972168</v>
-      </c>
-    </row>
-    <row r="36" spans="3:13">
-      <c r="D36" s="2">
-        <v>1587911875.27509</v>
+        <v>0.990570068359375</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="1">
+        <v>1588062170.15224</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1588061319.96597</v>
       </c>
       <c r="E36" s="2">
-        <v>1587911876.22486</v>
+        <v>1588061320.84218</v>
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
-        <v>0.94976997375488281</v>
+        <v>0.87620997428894043</v>
       </c>
       <c r="K36" t="s">
         <v>50</v>
       </c>
       <c r="L36">
         <f>I31-I27</f>
-        <v>3.6660201549530029</v>
+        <v>3.9204699993133545</v>
       </c>
       <c r="M36">
         <f>J31-I31</f>
-        <v>0.89965987205505371</v>
-      </c>
-    </row>
-    <row r="37" spans="3:13">
+        <v>0.90183019638061523</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="1">
+        <v>1588062171.1798201</v>
+      </c>
       <c r="K37" t="s">
         <v>33</v>
       </c>
@@ -6832,69 +6042,77 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>0.92930600643157957</v>
-      </c>
-    </row>
-    <row r="38" spans="3:13">
+        <f>$F$38</f>
+        <v>0.88329198360443117</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="2">
+        <v>1588062172.1171701</v>
+      </c>
       <c r="F38">
         <f>AVERAGE(F27:F36)</f>
-        <v>0.92930600643157957</v>
+        <v>0.88329198360443117</v>
       </c>
       <c r="K38" t="s">
         <v>35</v>
       </c>
       <c r="L38">
         <f>M37+L37</f>
-        <v>0.92930600643157957</v>
+        <v>0.88329198360443117</v>
       </c>
       <c r="M38">
-        <v>0.92930600643157957</v>
-      </c>
-    </row>
-    <row r="39" spans="3:13">
+        <f t="shared" ref="M38:M41" si="1">$F$38</f>
+        <v>0.88329198360443117</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13">
       <c r="E39" t="s">
         <v>81</v>
       </c>
       <c r="F39">
         <f>F38/500</f>
-        <v>1.858612012863159E-3</v>
+        <v>1.7665839672088624E-3</v>
       </c>
       <c r="K39" t="s">
         <v>37</v>
       </c>
       <c r="L39">
-        <f t="shared" ref="L39:L41" si="1">M38+L38</f>
-        <v>1.8586120128631591</v>
+        <f t="shared" ref="L39:L41" si="2">M38+L38</f>
+        <v>1.7665839672088623</v>
       </c>
       <c r="M39">
-        <v>0.92930600643157957</v>
-      </c>
-    </row>
-    <row r="40" spans="3:13">
+        <f t="shared" si="1"/>
+        <v>0.88329198360443117</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13">
       <c r="K40" t="s">
         <v>41</v>
       </c>
       <c r="L40">
+        <f t="shared" si="2"/>
+        <v>2.6498759508132936</v>
+      </c>
+      <c r="M40">
         <f t="shared" si="1"/>
-        <v>2.7879180192947386</v>
-      </c>
-      <c r="M40">
-        <v>0.92930600643157957</v>
-      </c>
-    </row>
-    <row r="41" spans="3:13">
+        <v>0.88329198360443117</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13">
       <c r="K41" t="s">
         <v>39</v>
       </c>
       <c r="L41">
+        <f t="shared" si="2"/>
+        <v>3.5331679344177247</v>
+      </c>
+      <c r="M41">
         <f t="shared" si="1"/>
-        <v>3.7172240257263183</v>
-      </c>
-      <c r="M41">
-        <v>0.92930600643157957</v>
-      </c>
-    </row>
-    <row r="43" spans="3:13">
+        <v>0.88329198360443117</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13">
       <c r="C43" t="s">
         <v>51</v>
       </c>
@@ -6911,7 +6129,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="3:13">
+    <row r="44" spans="2:13">
       <c r="C44" t="s">
         <v>56</v>
       </c>
@@ -6930,7 +6148,7 @@
         <v>2.4863538764088902</v>
       </c>
     </row>
-    <row r="45" spans="3:13">
+    <row r="45" spans="2:13">
       <c r="C45" t="s">
         <v>58</v>
       </c>
@@ -6941,15 +6159,15 @@
         <v>0.93079996109008789</v>
       </c>
       <c r="F45">
-        <f t="shared" ref="F45:F48" si="2">D45-E45</f>
+        <f t="shared" ref="F45:F48" si="3">D45-E45</f>
         <v>-1.493954658508323E-3</v>
       </c>
       <c r="G45">
-        <f t="shared" ref="G45:G48" si="3">F45/D45*100</f>
+        <f t="shared" ref="G45:G48" si="4">F45/D45*100</f>
         <v>-0.16076024992509461</v>
       </c>
     </row>
-    <row r="46" spans="3:13">
+    <row r="46" spans="2:13">
       <c r="C46" t="s">
         <v>60</v>
       </c>
@@ -6960,15 +6178,15 @@
         <v>0.91038990020751953</v>
       </c>
       <c r="F46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8916106224060036E-2</v>
       </c>
       <c r="G46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0355088736266271</v>
       </c>
     </row>
-    <row r="47" spans="3:13">
+    <row r="47" spans="2:13">
       <c r="C47" t="s">
         <v>62</v>
       </c>
@@ -6979,15 +6197,15 @@
         <v>0.9180598258972168</v>
       </c>
       <c r="F47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1246180534362771E-2</v>
       </c>
       <c r="G47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2101697886949765</v>
       </c>
     </row>
-    <row r="48" spans="3:13">
+    <row r="48" spans="2:13">
       <c r="C48" t="s">
         <v>64</v>
       </c>
@@ -6998,11 +6216,11 @@
         <v>0.89965987205505371</v>
       </c>
       <c r="F48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9646134376525857E-2</v>
       </c>
       <c r="G48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.1901369593384374</v>
       </c>
     </row>
@@ -7025,7 +6243,7 @@
         <v>4.6465300321578979</v>
       </c>
       <c r="E53">
-        <f t="shared" ref="E53:F53" si="4">SUM(E44:E48)</f>
+        <f t="shared" ref="E53" si="5">SUM(E44:E48)</f>
         <v>4.5651097297668457</v>
       </c>
     </row>
@@ -7041,8 +6259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R26"/>
   <sheetViews>
-    <sheetView topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7:R13"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R13" sqref="N7:R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.95"/>
@@ -7248,7 +6466,7 @@
       </c>
       <c r="O8">
         <f>J21*$D$15</f>
-        <v>7.4344480514526365</v>
+        <v>7.0663358688354494</v>
       </c>
       <c r="P8">
         <f>H4-$G$4</f>
@@ -7256,11 +6474,11 @@
       </c>
       <c r="Q8">
         <f>O8-P8</f>
-        <v>9.8298120498657049E-2</v>
+        <v>-0.2698140621185301</v>
       </c>
       <c r="R8">
         <f>Q8/O8*100</f>
-        <v>1.3221979603374903</v>
+        <v>-3.8183022591451796</v>
       </c>
     </row>
     <row r="9" spans="2:18">
@@ -7269,7 +6487,7 @@
       </c>
       <c r="O9">
         <f t="shared" ref="O9:O12" si="1">J22*$D$15</f>
-        <v>3.7172240257263183</v>
+        <v>3.5331679344177247</v>
       </c>
       <c r="P9">
         <f t="shared" ref="P9:P12" si="2">H5-$G$4</f>
@@ -7277,11 +6495,11 @@
       </c>
       <c r="Q9">
         <f t="shared" ref="Q9:Q12" si="3">O9-P9</f>
-        <v>0.12102403640747061</v>
+        <v>-6.3032054901122958E-2</v>
       </c>
       <c r="R9">
         <f t="shared" ref="R9:R12" si="4">Q9/O9*100</f>
-        <v>3.2557638595328786</v>
+        <v>-1.7840095934050417</v>
       </c>
     </row>
     <row r="10" spans="2:18">
@@ -7294,14 +6512,14 @@
       </c>
       <c r="K10">
         <f>D11*K21</f>
-        <v>7.4344480514526365</v>
+        <v>7.0663358688354494</v>
       </c>
       <c r="N10" t="s">
         <v>59</v>
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>20.44473214149475</v>
+        <v>19.432423639297486</v>
       </c>
       <c r="P10">
         <f t="shared" si="2"/>
@@ -7309,11 +6527,11 @@
       </c>
       <c r="Q10">
         <f t="shared" si="3"/>
-        <v>0.40389223098754812</v>
+        <v>-0.60841627120971609</v>
       </c>
       <c r="R10">
         <f t="shared" si="4"/>
-        <v>1.9755320255226332</v>
+        <v>-3.1309335495307851</v>
       </c>
     </row>
     <row r="11" spans="2:18">
@@ -7321,25 +6539,25 @@
         <v>80</v>
       </c>
       <c r="D11">
-        <v>1.858612012863159E-3</v>
+        <v>1.7665839672088624E-3</v>
       </c>
       <c r="I11" t="s">
         <v>34</v>
       </c>
       <c r="J11">
         <f t="shared" ref="J11:J14" si="5">D12*I22</f>
-        <v>1.8586120128631591</v>
+        <v>1.7665839672088623</v>
       </c>
       <c r="K11">
         <f t="shared" ref="K11:K14" si="6">D12*K22</f>
-        <v>1.8586120128631591</v>
+        <v>1.7665839672088623</v>
       </c>
       <c r="N11" t="s">
         <v>61</v>
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>13.010284090042113</v>
+        <v>12.366087770462038</v>
       </c>
       <c r="P11">
         <f t="shared" si="2"/>
@@ -7347,34 +6565,34 @@
       </c>
       <c r="Q11">
         <f t="shared" si="3"/>
-        <v>0.3307742118835435</v>
+        <v>-0.31342210769653178</v>
       </c>
       <c r="R11">
         <f t="shared" si="4"/>
-        <v>2.5424057583547572</v>
+        <v>-2.5345292182478283</v>
       </c>
     </row>
     <row r="12" spans="2:18">
       <c r="D12">
-        <v>1.858612012863159E-3</v>
+        <v>1.7665839672088624E-3</v>
       </c>
       <c r="I12" t="s">
         <v>36</v>
       </c>
       <c r="J12">
         <f t="shared" si="5"/>
-        <v>7.4344480514526365</v>
+        <v>7.0663358688354494</v>
       </c>
       <c r="K12">
         <f t="shared" si="6"/>
-        <v>13.010284090042113</v>
+        <v>12.366087770462038</v>
       </c>
       <c r="N12" t="s">
         <v>63</v>
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>14.868896102905273</v>
+        <v>14.132671737670899</v>
       </c>
       <c r="P12">
         <f t="shared" si="2"/>
@@ -7382,74 +6600,74 @@
       </c>
       <c r="Q12">
         <f t="shared" si="3"/>
-        <v>0.39091620445251429</v>
+        <v>-0.34530816078186</v>
       </c>
       <c r="R12">
         <f t="shared" si="4"/>
-        <v>2.6290869325271036</v>
+        <v>-2.4433324936107779</v>
       </c>
     </row>
     <row r="13" spans="2:18">
       <c r="D13">
-        <v>1.858612012863159E-3</v>
+        <v>1.7665839672088624E-3</v>
       </c>
       <c r="I13" t="s">
         <v>40</v>
       </c>
       <c r="J13">
         <f t="shared" si="5"/>
-        <v>9.2930600643157959</v>
+        <v>8.8329198360443115</v>
       </c>
       <c r="K13">
         <f t="shared" si="6"/>
-        <v>3.7172240257263183</v>
+        <v>3.5331679344177247</v>
       </c>
       <c r="P13" t="s">
         <v>85</v>
       </c>
       <c r="Q13">
         <f>AVERAGE(Q8:Q12)</f>
-        <v>0.26898096084594669</v>
+        <v>-0.31999853134155221</v>
       </c>
       <c r="R13">
         <f>AVERAGE(R8:R12)</f>
-        <v>2.3449973072549728</v>
+        <v>-2.7422214227879222</v>
       </c>
     </row>
     <row r="14" spans="2:18">
       <c r="D14">
-        <v>1.858612012863159E-3</v>
+        <v>1.7665839672088624E-3</v>
       </c>
       <c r="I14" t="s">
         <v>38</v>
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
-        <v>13.010284090042113</v>
+        <v>12.366087770462038</v>
       </c>
       <c r="K14">
         <f t="shared" si="6"/>
-        <v>1.8586120128631591</v>
+        <v>1.7665839672088623</v>
       </c>
     </row>
     <row r="15" spans="2:18">
       <c r="D15">
-        <v>1.858612012863159E-3</v>
+        <v>1.7665839672088624E-3</v>
       </c>
     </row>
     <row r="16" spans="2:18">
       <c r="D16">
-        <v>1.858612012863159E-3</v>
+        <v>1.7665839672088624E-3</v>
       </c>
     </row>
     <row r="17" spans="3:11">
       <c r="D17">
-        <v>1.858612012863159E-3</v>
+        <v>1.7665839672088624E-3</v>
       </c>
     </row>
     <row r="18" spans="3:11">
       <c r="D18">
-        <v>1.858612012863159E-3</v>
+        <v>1.7665839672088624E-3</v>
       </c>
     </row>
     <row r="19" spans="3:11">
@@ -7475,7 +6693,7 @@
     <row r="21" spans="3:11">
       <c r="C21">
         <f>D18*1000</f>
-        <v>1.8586120128631591</v>
+        <v>1.7665839672088623</v>
       </c>
       <c r="F21" t="s">
         <v>74</v>
@@ -7600,8 +6818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q26"/>
   <sheetViews>
-    <sheetView topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:Q14"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="M8:Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.95"/>
@@ -7815,7 +7033,7 @@
       </c>
       <c r="N8">
         <f>K21*$D$20</f>
-        <v>33.45501623153686</v>
+        <v>31.798511409759477</v>
       </c>
       <c r="O8">
         <f>H4-$G$4</f>
@@ -7823,11 +7041,11 @@
       </c>
       <c r="P8">
         <f>N8-O8</f>
-        <v>1.1977163314819279</v>
+        <v>-0.45878849029545421</v>
       </c>
       <c r="Q8">
         <f>P8/N8*100</f>
-        <v>3.580079959288387</v>
+        <v>-1.442798640425176</v>
       </c>
     </row>
     <row r="9" spans="2:17">
@@ -7866,7 +7084,7 @@
       </c>
       <c r="N9">
         <f t="shared" ref="N9:N13" si="2">K22*$D$20</f>
-        <v>37.172240257263184</v>
+        <v>35.331679344177196</v>
       </c>
       <c r="O9">
         <f t="shared" ref="O9:O13" si="3">H5-$G$4</f>
@@ -7874,11 +7092,11 @@
       </c>
       <c r="P9">
         <f t="shared" ref="P9:P12" si="4">N9-O9</f>
-        <v>1.3685703277587891</v>
+        <v>-0.47199058532719818</v>
       </c>
       <c r="Q9">
         <f t="shared" ref="Q9:Q12" si="5">P9/N9*100</f>
-        <v>3.6816998875696774</v>
+        <v>-1.3358849454320776</v>
       </c>
     </row>
     <row r="10" spans="2:17">
@@ -7886,18 +7104,19 @@
         <v>100</v>
       </c>
       <c r="J10">
-        <f>J21*$D$20</f>
+        <f t="shared" ref="J10:J15" si="6">J21*$D$20</f>
         <v>0</v>
       </c>
       <c r="K10">
-        <v>33.45501623153686</v>
+        <f>$D$20*L21</f>
+        <v>31.798511409759477</v>
       </c>
       <c r="M10" t="s">
         <v>59</v>
       </c>
       <c r="N10">
         <f t="shared" si="2"/>
-        <v>31.596404218673705</v>
+        <v>30.031927442550618</v>
       </c>
       <c r="O10">
         <f t="shared" si="3"/>
@@ -7905,11 +7124,11 @@
       </c>
       <c r="P10">
         <f t="shared" si="4"/>
-        <v>1.3130043983459458</v>
+        <v>-0.25147237777714082</v>
       </c>
       <c r="Q10">
         <f t="shared" si="5"/>
-        <v>4.1555500722767391</v>
+        <v>-0.83735011100500722</v>
       </c>
     </row>
     <row r="11" spans="2:17">
@@ -7918,17 +7137,18 @@
       </c>
       <c r="J11">
         <f>J22*$D$20</f>
-        <v>2.7879180192947386</v>
+        <v>2.6498759508132896</v>
       </c>
       <c r="K11">
-        <v>34.384322237968441</v>
+        <f t="shared" ref="K11:K15" si="7">$D$20*L22</f>
+        <v>32.681803393363907</v>
       </c>
       <c r="M11" t="s">
         <v>61</v>
       </c>
       <c r="N11">
         <f t="shared" si="2"/>
-        <v>55.758360385894768</v>
+        <v>52.997519016265798</v>
       </c>
       <c r="O11">
         <f t="shared" si="3"/>
@@ -7936,11 +7156,11 @@
       </c>
       <c r="P11">
         <f t="shared" si="4"/>
-        <v>2.5097405910491872</v>
+        <v>-0.25110077857978297</v>
       </c>
       <c r="Q11">
         <f t="shared" si="5"/>
-        <v>4.5011018503407749</v>
+        <v>-0.47379723285294933</v>
       </c>
     </row>
     <row r="12" spans="2:17">
@@ -7949,18 +7169,19 @@
         <v>36</v>
       </c>
       <c r="J12">
-        <f>J23*$D$20</f>
-        <v>5.5758360385894772</v>
+        <f t="shared" si="6"/>
+        <v>5.2997519016265793</v>
       </c>
       <c r="K12">
-        <v>26.020568180084226</v>
+        <f t="shared" si="7"/>
+        <v>24.732175540924036</v>
       </c>
       <c r="M12" t="s">
         <v>63</v>
       </c>
       <c r="N12">
         <f t="shared" si="2"/>
-        <v>52.041136360168451</v>
+        <v>49.464351081848072</v>
       </c>
       <c r="O12">
         <f t="shared" si="3"/>
@@ -7968,11 +7189,11 @@
       </c>
       <c r="P12">
         <f t="shared" si="4"/>
-        <v>2.2801764965057316</v>
+        <v>-0.29660878181464767</v>
       </c>
       <c r="Q12">
         <f t="shared" si="5"/>
-        <v>4.3814886760446425</v>
+        <v>-0.59964151015314571</v>
       </c>
     </row>
     <row r="13" spans="2:17">
@@ -7981,18 +7202,19 @@
         <v>40</v>
       </c>
       <c r="J13">
-        <f>J24*$D$20</f>
-        <v>9.2930600643157959</v>
+        <f t="shared" si="6"/>
+        <v>8.8329198360442991</v>
       </c>
       <c r="K13">
-        <v>46.465300321578979</v>
+        <f t="shared" si="7"/>
+        <v>44.164599180221494</v>
       </c>
       <c r="M13" t="s">
         <v>90</v>
       </c>
       <c r="N13">
         <f t="shared" si="2"/>
-        <v>51.11183035373687</v>
+        <v>48.581059098243642</v>
       </c>
       <c r="O13">
         <f t="shared" si="3"/>
@@ -8000,11 +7222,11 @@
       </c>
       <c r="P13">
         <f>N13-O13</f>
-        <v>2.3361204862594533</v>
+        <v>-0.19465076923377467</v>
       </c>
       <c r="Q13">
         <f>P13/N13*100</f>
-        <v>4.5706061983919062</v>
+        <v>-0.40067214022679032</v>
       </c>
     </row>
     <row r="14" spans="2:17">
@@ -8012,22 +7234,23 @@
         <v>38</v>
       </c>
       <c r="J14">
-        <f>J25*$D$20</f>
-        <v>10.222366070747375</v>
+        <f t="shared" si="6"/>
+        <v>9.7162118196487288</v>
       </c>
       <c r="K14">
-        <v>41.818770289421082</v>
+        <f t="shared" si="7"/>
+        <v>39.748139262199345</v>
       </c>
       <c r="O14" t="s">
         <v>85</v>
       </c>
       <c r="P14">
         <f>AVERAGE(P8:P13)</f>
-        <v>1.8342214385668392</v>
+        <v>-0.32076863050466642</v>
       </c>
       <c r="Q14">
         <f>AVERAGE(Q8:Q13)</f>
-        <v>4.1450877739853551</v>
+        <v>-0.84835743001585762</v>
       </c>
     </row>
     <row r="15" spans="2:17">
@@ -8035,11 +7258,12 @@
         <v>97</v>
       </c>
       <c r="J15">
-        <f>J26*$D$20</f>
-        <v>13.010284090042113</v>
+        <f t="shared" si="6"/>
+        <v>12.366087770462018</v>
       </c>
       <c r="K15">
-        <v>38.101546263694757</v>
+        <f t="shared" si="7"/>
+        <v>36.214971327781626</v>
       </c>
     </row>
     <row r="18" spans="3:12">
@@ -8056,7 +7280,8 @@
         <v>99</v>
       </c>
       <c r="D20">
-        <v>1.858612012863159E-3</v>
+        <f>1.76658396720886/1000</f>
+        <v>1.7665839672088598E-3</v>
       </c>
       <c r="G20" t="s">
         <v>96</v>
@@ -8083,7 +7308,7 @@
       </c>
       <c r="D21">
         <f>500*D20</f>
-        <v>0.92930600643157957</v>
+        <v>0.88329198360442995</v>
       </c>
       <c r="F21" t="s">
         <v>74</v>
@@ -8092,7 +7317,7 @@
         <v>1200</v>
       </c>
       <c r="H21">
-        <f>G21-$G$21</f>
+        <f t="shared" ref="H21:H26" si="8">G21-$G$21</f>
         <v>0</v>
       </c>
       <c r="I21">
@@ -8115,7 +7340,7 @@
       </c>
       <c r="D22">
         <f>C22*D20</f>
-        <v>1.8586120128631591</v>
+        <v>1.7665839672088599</v>
       </c>
       <c r="F22" t="s">
         <v>34</v>
@@ -8124,7 +7349,7 @@
         <v>2400</v>
       </c>
       <c r="H22">
-        <f>G22-$G$21</f>
+        <f t="shared" si="8"/>
         <v>1200</v>
       </c>
       <c r="I22">
@@ -8137,7 +7362,7 @@
         <v>20000</v>
       </c>
       <c r="L22">
-        <f t="shared" ref="L22:L26" si="6">K22-J22</f>
+        <f t="shared" ref="L22:L26" si="9">K22-J22</f>
         <v>18500</v>
       </c>
     </row>
@@ -8147,7 +7372,7 @@
       </c>
       <c r="D23">
         <f>C23*D20</f>
-        <v>3.7172240257263183</v>
+        <v>3.5331679344177198</v>
       </c>
       <c r="F23" t="s">
         <v>36</v>
@@ -8156,7 +7381,7 @@
         <v>3600</v>
       </c>
       <c r="H23">
-        <f>G23-$G$21</f>
+        <f t="shared" si="8"/>
         <v>2400</v>
       </c>
       <c r="I23">
@@ -8169,7 +7394,7 @@
         <v>17000</v>
       </c>
       <c r="L23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>14000</v>
       </c>
     </row>
@@ -8184,7 +7409,7 @@
         <v>4800</v>
       </c>
       <c r="H24">
-        <f>G24-$G$21</f>
+        <f t="shared" si="8"/>
         <v>3600</v>
       </c>
       <c r="I24">
@@ -8197,7 +7422,7 @@
         <v>30000</v>
       </c>
       <c r="L24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>25000</v>
       </c>
     </row>
@@ -8209,7 +7434,7 @@
         <v>5200</v>
       </c>
       <c r="H25">
-        <f>G25-$G$21</f>
+        <f t="shared" si="8"/>
         <v>4000</v>
       </c>
       <c r="I25">
@@ -8222,7 +7447,7 @@
         <v>28000</v>
       </c>
       <c r="L25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>22500</v>
       </c>
     </row>
@@ -8234,7 +7459,7 @@
         <v>5800</v>
       </c>
       <c r="H26">
-        <f>G26-$G$21</f>
+        <f t="shared" si="8"/>
         <v>4600</v>
       </c>
       <c r="I26">
@@ -8247,7 +7472,7 @@
         <v>27500</v>
       </c>
       <c r="L26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>20500</v>
       </c>
     </row>
@@ -8261,10 +7486,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:Q25"/>
+  <dimension ref="A3:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="F5" workbookViewId="0">
+      <selection activeCell="Q13" sqref="M7:Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.95"/>
@@ -8272,18 +7497,24 @@
     <col min="1" max="19" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>1588053732.4298401</v>
+      </c>
+      <c r="E3" s="13"/>
+    </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>1587971303.4895401</v>
+        <v>1588053738.0599501</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>1587971303.4895401</v>
+        <v>1588053732.4298401</v>
       </c>
       <c r="D4" s="1">
-        <v>1587971308.93313</v>
+        <v>1588053738.05809</v>
       </c>
       <c r="F4" t="s">
         <v>88</v>
@@ -8303,108 +7534,111 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>1587971308.9333601</v>
+        <v>1588053739.93927</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>1587971308.9333601</v>
+        <v>1588053738.0599501</v>
       </c>
       <c r="D5" s="1">
-        <v>1587971310.76018</v>
+        <v>1588053739.9370699</v>
       </c>
       <c r="F5" t="s">
         <v>89</v>
       </c>
       <c r="G5" s="1">
-        <v>1587971303.4895401</v>
+        <v>1588053732.4298401</v>
       </c>
       <c r="H5" s="1">
-        <v>1587971308.93313</v>
-      </c>
-      <c r="I5" t="s">
+        <v>1588053738.05809</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="8">
         <f>G5-$G$5</f>
         <v>0</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="8">
         <f>H5-G5</f>
-        <v>5.4435899257659912</v>
-      </c>
+        <v>5.6282498836517334</v>
+      </c>
+      <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>1587971310.76034</v>
+        <v>1588053747.11514</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>1587971310.76034</v>
+        <v>1588053739.93927</v>
       </c>
       <c r="D6" s="1">
-        <v>1587971318.06916</v>
+        <v>1588053747.1131499</v>
       </c>
       <c r="F6" t="s">
         <v>57</v>
       </c>
       <c r="G6" s="1">
-        <v>1587971308.9333601</v>
+        <v>1588053738.0599501</v>
       </c>
       <c r="H6" s="1">
-        <v>1587971310.76018</v>
-      </c>
-      <c r="I6" t="s">
+        <v>1588053739.9370699</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="6">
         <f t="shared" ref="J6:J9" si="0">G6-$G$5</f>
-        <v>5.4438199996948242</v>
-      </c>
-      <c r="K6">
-        <f t="shared" ref="K6:K10" si="1">H6-G6</f>
-        <v>1.826819896697998</v>
-      </c>
+        <v>5.6301100254058838</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" ref="K6:K9" si="1">H6-G6</f>
+        <v>1.877119779586792</v>
+      </c>
+      <c r="L6" s="11"/>
       <c r="M6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>1587971318.0695801</v>
+        <v>1588053748.9006701</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>1587971318.0695801</v>
+        <v>1588053747.11514</v>
       </c>
       <c r="D7" s="1">
-        <v>1587971319.9408801</v>
+        <v>1588053748.8986599</v>
       </c>
       <c r="F7" t="s">
         <v>59</v>
       </c>
       <c r="G7" s="1">
-        <v>1587971310.76034</v>
+        <v>1588053739.93927</v>
       </c>
       <c r="H7" s="1">
-        <v>1587971318.06916</v>
-      </c>
-      <c r="I7" t="s">
+        <v>1588053747.1131499</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="6">
         <f t="shared" si="0"/>
-        <v>7.2707998752593994</v>
-      </c>
-      <c r="K7">
+        <v>7.509429931640625</v>
+      </c>
+      <c r="K7" s="6">
         <f t="shared" si="1"/>
-        <v>7.3088200092315674</v>
-      </c>
+        <v>7.173879861831665</v>
+      </c>
+      <c r="L7" s="11"/>
       <c r="M7" t="s">
         <v>83</v>
       </c>
@@ -8422,56 +7656,54 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="1">
-        <v>1587971319.9410801</v>
-      </c>
       <c r="B8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1">
-        <v>1587971319.9410801</v>
+        <v>1588053748.9006701</v>
       </c>
       <c r="D8" s="2">
-        <v>1587971323.5347099</v>
+        <v>1588053752.46559</v>
       </c>
       <c r="F8" t="s">
         <v>61</v>
       </c>
       <c r="G8" s="1">
-        <v>1587971319.9410801</v>
+        <v>1588053748.9006701</v>
       </c>
       <c r="H8" s="2">
-        <v>1587971323.5347099</v>
-      </c>
-      <c r="I8" t="s">
+        <v>1588053752.46559</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="6">
         <f t="shared" si="0"/>
-        <v>16.451539993286133</v>
-      </c>
-      <c r="K8">
+        <v>16.470829963684082</v>
+      </c>
+      <c r="K8" s="6">
         <f t="shared" si="1"/>
-        <v>3.5936298370361328</v>
-      </c>
+        <v>3.5649199485778809</v>
+      </c>
+      <c r="L8" s="11"/>
       <c r="M8" t="s">
         <v>56</v>
       </c>
       <c r="N8">
         <f>K21*$D$16</f>
-        <v>5.5758360385894772</v>
+        <v>5.2997519016265793</v>
       </c>
       <c r="O8">
         <f>H5-$G$5</f>
-        <v>5.4435899257659912</v>
+        <v>5.6282498836517334</v>
       </c>
       <c r="P8">
         <f>N8-O8</f>
-        <v>0.13224611282348597</v>
+        <v>-0.32849798202515412</v>
       </c>
       <c r="Q8">
         <f>P8/N8*100</f>
-        <v>2.3717719084318762</v>
+        <v>-6.1983652843132671</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -8479,45 +7711,46 @@
         <v>63</v>
       </c>
       <c r="G9" s="1">
-        <v>1587971318.0695801</v>
+        <v>1588053747.11514</v>
       </c>
       <c r="H9" s="1">
-        <v>1587971319.9408801</v>
-      </c>
-      <c r="I9" t="s">
+        <v>1588053748.8986599</v>
+      </c>
+      <c r="I9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="13">
         <f t="shared" si="0"/>
-        <v>14.580039978027344</v>
-      </c>
-      <c r="K9">
+        <v>14.685299873352051</v>
+      </c>
+      <c r="K9" s="13">
         <f t="shared" si="1"/>
-        <v>1.8712999820709229</v>
-      </c>
+        <v>1.783519983291626</v>
+      </c>
+      <c r="L9" s="14"/>
       <c r="M9" t="s">
         <v>57</v>
       </c>
       <c r="N9">
         <f t="shared" ref="N9:N12" si="2">K22*$D$16</f>
-        <v>7.4344480514526365</v>
+        <v>7.0663358688354396</v>
       </c>
       <c r="O9">
         <f t="shared" ref="O9:O12" si="3">H6-$G$5</f>
-        <v>7.2706398963928223</v>
+        <v>7.5072298049926758</v>
       </c>
       <c r="P9">
         <f t="shared" ref="P9:P12" si="4">N9-O9</f>
-        <v>0.16380815505981428</v>
+        <v>-0.44089393615723615</v>
       </c>
       <c r="Q9">
         <f t="shared" ref="Q9:Q12" si="5">P9/N9*100</f>
-        <v>2.2033667318155161</v>
+        <v>-6.2393572049370647</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>1587971308.93313</v>
+        <v>1588053738.05809</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -8530,112 +7763,112 @@
       </c>
       <c r="K10">
         <f>L21*$D$16</f>
-        <v>5.5758360385894772</v>
+        <v>5.2997519016265793</v>
       </c>
       <c r="M10" t="s">
         <v>59</v>
       </c>
       <c r="N10">
         <f t="shared" si="2"/>
-        <v>14.868896102905273</v>
+        <v>14.132671737670879</v>
       </c>
       <c r="O10">
         <f t="shared" si="3"/>
-        <v>14.579619884490967</v>
+        <v>14.68330979347229</v>
       </c>
       <c r="P10">
         <f t="shared" si="4"/>
-        <v>0.28927621841430629</v>
+        <v>-0.55063805580141079</v>
       </c>
       <c r="Q10">
         <f t="shared" si="5"/>
-        <v>1.9455124066525948</v>
+        <v>-3.8962063650970933</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>1587971310.76018</v>
+        <v>1588053739.9370699</v>
       </c>
       <c r="I11" t="s">
         <v>34</v>
       </c>
       <c r="J11">
         <f t="shared" ref="J11:J13" si="6">J22*$D$16</f>
-        <v>5.5758360385894772</v>
-      </c>
-      <c r="K11">
+        <v>5.2997519016265793</v>
+      </c>
+      <c r="K11" s="11">
         <f t="shared" ref="K11:K14" si="7">L22*$D$16</f>
-        <v>1.8586120128631591</v>
+        <v>1.7665839672088599</v>
       </c>
       <c r="M11" t="s">
         <v>61</v>
       </c>
       <c r="N11">
         <f t="shared" si="2"/>
-        <v>20.44473214149475</v>
+        <v>19.432423639297458</v>
       </c>
       <c r="O11">
         <f t="shared" si="3"/>
-        <v>20.045169830322266</v>
+        <v>20.035749912261963</v>
       </c>
       <c r="P11">
         <f t="shared" si="4"/>
-        <v>0.39956231117248464</v>
+        <v>-0.60332627296450525</v>
       </c>
       <c r="Q11">
         <f t="shared" si="5"/>
-        <v>1.9543533679344745</v>
+        <v>-3.1047402226473761</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>1587971318.06916</v>
+        <v>1588053747.1131499</v>
       </c>
       <c r="I12" t="s">
         <v>36</v>
       </c>
       <c r="J12">
         <f t="shared" si="6"/>
-        <v>7.4344480514526365</v>
+        <v>7.0663358688354396</v>
       </c>
       <c r="K12">
         <f t="shared" si="7"/>
-        <v>7.4344480514526365</v>
+        <v>7.0663358688354396</v>
       </c>
       <c r="M12" t="s">
         <v>63</v>
       </c>
       <c r="N12">
         <f t="shared" si="2"/>
-        <v>16.72750811576843</v>
+        <v>15.899255704879739</v>
       </c>
       <c r="O12">
         <f t="shared" si="3"/>
-        <v>16.451339960098267</v>
+        <v>16.468819856643677</v>
       </c>
       <c r="P12">
         <f t="shared" si="4"/>
-        <v>0.27616815567016317</v>
+        <v>-0.56956415176393804</v>
       </c>
       <c r="Q12">
         <f t="shared" si="5"/>
-        <v>1.6509820456152058</v>
+        <v>-3.5823321691035486</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>1587971319.9408801</v>
+        <v>1588053748.8986599</v>
       </c>
       <c r="I13" t="s">
         <v>40</v>
       </c>
       <c r="J13">
         <f t="shared" si="6"/>
-        <v>16.72750811576843</v>
+        <v>15.899255704879739</v>
       </c>
       <c r="K13">
         <f t="shared" si="7"/>
-        <v>3.7172240257263183</v>
+        <v>3.5331679344177198</v>
       </c>
       <c r="O13" t="s">
         <v>85</v>
@@ -8651,18 +7884,18 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>1587971323.5347099</v>
+        <v>1588053752.46559</v>
       </c>
       <c r="I14" t="s">
         <v>38</v>
       </c>
       <c r="J14">
         <f>J25*$D$16</f>
-        <v>14.868896102905273</v>
+        <v>14.132671737670879</v>
       </c>
       <c r="K14">
         <f t="shared" si="7"/>
-        <v>1.8586120128631591</v>
+        <v>1.7665839672088599</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -8670,7 +7903,8 @@
         <v>99</v>
       </c>
       <c r="D16">
-        <v>1.858612012863159E-3</v>
+        <f>1.76658396720886/1000</f>
+        <v>1.7665839672088598E-3</v>
       </c>
     </row>
     <row r="17" spans="3:12">
@@ -8679,7 +7913,7 @@
       </c>
       <c r="D17">
         <f>500*D16</f>
-        <v>0.92930600643157957</v>
+        <v>0.88329198360442995</v>
       </c>
     </row>
     <row r="18" spans="3:12">
@@ -8688,7 +7922,7 @@
       </c>
       <c r="D18">
         <f>C18*D16</f>
-        <v>1.8586120128631591</v>
+        <v>1.7665839672088599</v>
       </c>
     </row>
     <row r="19" spans="3:12">
@@ -8697,7 +7931,7 @@
       </c>
       <c r="D19">
         <f>C19*D16</f>
-        <v>3.7172240257263183</v>
+        <v>3.5331679344177198</v>
       </c>
     </row>
     <row r="20" spans="3:12">
